--- a/hoy/fallos/Performance-WASS.xlsx
+++ b/hoy/fallos/Performance-WASS.xlsx
@@ -15,41 +15,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
   <si>
     <t>ANU_BWTA</t>
   </si>
   <si>
+    <t>ANU_ZBRA</t>
+  </si>
+  <si>
     <t>AXA_HUAW</t>
   </si>
   <si>
     <t>AXA_VALL</t>
   </si>
   <si>
-    <t>BAR_CHCH</t>
-  </si>
-  <si>
     <t>BAR_COMG</t>
   </si>
   <si>
-    <t>BAR_GRAZ</t>
-  </si>
-  <si>
-    <t>BAR_JOHN</t>
-  </si>
-  <si>
-    <t>BAR_PHIL</t>
-  </si>
-  <si>
-    <t>BAR_SECU</t>
-  </si>
-  <si>
-    <t>BAR_SPTN</t>
-  </si>
-  <si>
-    <t>BAR_WDLG</t>
-  </si>
-  <si>
     <t>BVI_HUAW</t>
   </si>
   <si>
@@ -59,6 +41,15 @@
     <t>BVI_RTN</t>
   </si>
   <si>
+    <t>BVI_ZBRA</t>
+  </si>
+  <si>
+    <t>CAY_EMA</t>
+  </si>
+  <si>
+    <t>CAY_GNBND</t>
+  </si>
+  <si>
     <t>CMV_CARL</t>
   </si>
   <si>
@@ -74,27 +65,15 @@
     <t>DOM_ROSE</t>
   </si>
   <si>
-    <t>DOM_RVML</t>
-  </si>
-  <si>
-    <t>EST_GSAT1</t>
-  </si>
-  <si>
     <t>GND_HART</t>
   </si>
   <si>
-    <t>GND_HVML</t>
-  </si>
-  <si>
     <t>GND_ZBRA</t>
   </si>
   <si>
     <t>JAM_BRA4</t>
   </si>
   <si>
-    <t>JAM_BRWK</t>
-  </si>
-  <si>
     <t>JAM_CALIX</t>
   </si>
   <si>
@@ -161,12 +140,18 @@
     <t>JAM_PTMR</t>
   </si>
   <si>
+    <t>JAM_RNBY</t>
+  </si>
+  <si>
     <t>JAM_ROSE</t>
   </si>
   <si>
     <t>JAM_SABY</t>
   </si>
   <si>
+    <t>JAM_SC14B</t>
+  </si>
+  <si>
     <t>JAM_SJON</t>
   </si>
   <si>
@@ -182,12 +167,15 @@
     <t>JAM_STHL</t>
   </si>
   <si>
-    <t>JAM_WEST</t>
+    <t>JAM_WSH1</t>
   </si>
   <si>
     <t>JAM_WST2</t>
   </si>
   <si>
+    <t>JAM_ZBRA</t>
+  </si>
+  <si>
     <t>JM-PBK-TX-</t>
   </si>
   <si>
@@ -197,9 +185,6 @@
     <t>NOR_CVVM</t>
   </si>
   <si>
-    <t>NULL</t>
-  </si>
-  <si>
     <t>SKB_BAST</t>
   </si>
   <si>
@@ -218,16 +203,13 @@
     <t>SLU_UVF</t>
   </si>
   <si>
-    <t>SLU_ZBRA</t>
-  </si>
-  <si>
     <t>SOU_CVVM</t>
   </si>
   <si>
     <t>SVD_HUAW</t>
   </si>
   <si>
-    <t>SVD_SNS</t>
+    <t>SVD_MVUS</t>
   </si>
   <si>
     <t>SVD_SNS1</t>
@@ -585,7 +567,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I75"/>
+  <dimension ref="A1:I69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -624,19 +606,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="G2" t="s">
         <v>0</v>
@@ -649,19 +631,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s"/>
-      <c r="G3" t="s"/>
+      <c r="D3" t="s"/>
+      <c r="E3" t="s"/>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1</v>
+      </c>
       <c r="H3" t="s"/>
       <c r="I3" t="s"/>
     </row>
@@ -670,23 +652,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" t="n">
-        <v>33</v>
-      </c>
-      <c r="G4" t="s">
-        <v>2</v>
-      </c>
+      <c r="F4" t="s"/>
+      <c r="G4" t="s"/>
       <c r="H4" t="s"/>
       <c r="I4" t="s"/>
     </row>
@@ -695,40 +673,44 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
       </c>
-      <c r="D5" t="s"/>
-      <c r="E5" t="s"/>
-      <c r="F5" t="s"/>
-      <c r="G5" t="s"/>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="D5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
         <v>3</v>
       </c>
+      <c r="F5" t="n">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1091</v>
+        <v>2008</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>997</v>
+        <v>1840</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
       </c>
       <c r="F6" t="n">
-        <v>94</v>
+        <v>168</v>
       </c>
       <c r="G6" t="s">
         <v>4</v>
@@ -741,76 +723,88 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
-      <c r="D7" t="s"/>
-      <c r="E7" t="s"/>
-      <c r="F7" t="s"/>
-      <c r="G7" t="s"/>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="D7" t="n">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
         <v>5</v>
       </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
       </c>
-      <c r="D8" t="s"/>
-      <c r="E8" t="s"/>
-      <c r="F8" t="s"/>
-      <c r="G8" t="s"/>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="D8" t="n">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
         <v>6</v>
       </c>
+      <c r="F8" t="n">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
       </c>
-      <c r="D9" t="s"/>
-      <c r="E9" t="s"/>
-      <c r="F9" t="s"/>
-      <c r="G9" t="s"/>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="D9" t="n">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
         <v>7</v>
       </c>
+      <c r="F9" t="n">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -825,28 +819,32 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
       </c>
-      <c r="D11" t="s"/>
-      <c r="E11" t="s"/>
-      <c r="F11" t="s"/>
-      <c r="G11" t="s"/>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
         <v>9</v>
       </c>
+      <c r="F11" t="n">
+        <v>4</v>
+      </c>
+      <c r="G11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
@@ -856,7 +854,7 @@
       <c r="F12" t="s"/>
       <c r="G12" t="s"/>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I12" t="s">
         <v>10</v>
@@ -867,78 +865,70 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
       </c>
-      <c r="D13" t="n">
-        <v>24</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
+      <c r="D13" t="s"/>
+      <c r="E13" t="s"/>
       <c r="F13" t="s"/>
       <c r="G13" t="s"/>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s"/>
+      <c r="H13" t="n">
+        <v>44</v>
+      </c>
+      <c r="I13" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" t="s"/>
+      <c r="E14" t="s"/>
+      <c r="F14" t="s"/>
+      <c r="G14" t="s"/>
+      <c r="H14" t="n">
+        <v>48</v>
+      </c>
+      <c r="I14" t="s">
         <v>12</v>
       </c>
-      <c r="E14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" t="n">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
       </c>
-      <c r="D15" t="n">
-        <v>33</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="D15" t="s"/>
+      <c r="E15" t="s"/>
+      <c r="F15" t="s"/>
+      <c r="G15" t="s"/>
+      <c r="H15" t="n">
+        <v>75</v>
+      </c>
+      <c r="I15" t="s">
         <v>13</v>
       </c>
-      <c r="F15" t="n">
-        <v>21</v>
-      </c>
-      <c r="G15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
@@ -948,7 +938,7 @@
       <c r="F16" t="s"/>
       <c r="G16" t="s"/>
       <c r="H16" t="n">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="I16" t="s">
         <v>14</v>
@@ -959,82 +949,90 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>43</v>
+        <v>487</v>
       </c>
       <c r="C17" t="s">
         <v>15</v>
       </c>
-      <c r="D17" t="s"/>
-      <c r="E17" t="s"/>
-      <c r="F17" t="s"/>
-      <c r="G17" t="s"/>
-      <c r="H17" t="n">
-        <v>43</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="D17" t="n">
+        <v>429</v>
+      </c>
+      <c r="E17" t="s">
         <v>15</v>
       </c>
+      <c r="F17" t="n">
+        <v>58</v>
+      </c>
+      <c r="G17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>78</v>
+        <v>1778</v>
       </c>
       <c r="C18" t="s">
         <v>16</v>
       </c>
-      <c r="D18" t="s"/>
-      <c r="E18" t="s"/>
-      <c r="F18" t="s"/>
-      <c r="G18" t="s"/>
-      <c r="H18" t="n">
-        <v>78</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="D18" t="n">
+        <v>1678</v>
+      </c>
+      <c r="E18" t="s">
         <v>16</v>
       </c>
+      <c r="F18" t="n">
+        <v>100</v>
+      </c>
+      <c r="G18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C19" t="s">
         <v>17</v>
       </c>
       <c r="D19" t="s"/>
       <c r="E19" t="s"/>
-      <c r="F19" t="s"/>
-      <c r="G19" t="s"/>
-      <c r="H19" t="n">
-        <v>4</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="F19" t="n">
+        <v>3</v>
+      </c>
+      <c r="G19" t="s">
         <v>17</v>
       </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="C20" t="s">
         <v>18</v>
       </c>
       <c r="D20" t="n">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="E20" t="s">
         <v>18</v>
       </c>
       <c r="F20" t="n">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="G20" t="s">
         <v>18</v>
@@ -1047,36 +1045,40 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
         <v>19</v>
       </c>
       <c r="D21" t="s"/>
       <c r="E21" t="s"/>
-      <c r="F21" t="s"/>
-      <c r="G21" t="s"/>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="F21" t="n">
+        <v>44</v>
+      </c>
+      <c r="G21" t="s">
         <v>19</v>
       </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>662</v>
       </c>
       <c r="C22" t="s">
         <v>20</v>
       </c>
-      <c r="D22" t="s"/>
-      <c r="E22" t="s"/>
+      <c r="D22" t="n">
+        <v>575</v>
+      </c>
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="G22" t="s">
         <v>20</v>
@@ -1089,19 +1091,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>823</v>
+        <v>115</v>
       </c>
       <c r="C23" t="s">
         <v>21</v>
       </c>
       <c r="D23" t="n">
-        <v>707</v>
+        <v>110</v>
       </c>
       <c r="E23" t="s">
         <v>21</v>
       </c>
       <c r="F23" t="n">
-        <v>116</v>
+        <v>5</v>
       </c>
       <c r="G23" t="s">
         <v>21</v>
@@ -1114,40 +1116,44 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3</v>
+        <v>250</v>
       </c>
       <c r="C24" t="s">
         <v>22</v>
       </c>
-      <c r="D24" t="s"/>
-      <c r="E24" t="s"/>
-      <c r="F24" t="s"/>
-      <c r="G24" t="s"/>
-      <c r="H24" t="n">
-        <v>3</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="D24" t="n">
+        <v>176</v>
+      </c>
+      <c r="E24" t="s">
         <v>22</v>
       </c>
+      <c r="F24" t="n">
+        <v>74</v>
+      </c>
+      <c r="G24" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>6</v>
+        <v>95</v>
       </c>
       <c r="C25" t="s">
         <v>23</v>
       </c>
       <c r="D25" t="n">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="E25" t="s">
         <v>23</v>
       </c>
       <c r="F25" t="n">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="G25" t="s">
         <v>23</v>
@@ -1160,19 +1166,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>390</v>
+        <v>1362</v>
       </c>
       <c r="C26" t="s">
         <v>24</v>
       </c>
       <c r="D26" t="n">
-        <v>341</v>
+        <v>794</v>
       </c>
       <c r="E26" t="s">
         <v>24</v>
       </c>
       <c r="F26" t="n">
-        <v>49</v>
+        <v>568</v>
       </c>
       <c r="G26" t="s">
         <v>24</v>
@@ -1185,7 +1191,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="C27" t="s">
         <v>25</v>
@@ -1195,7 +1201,7 @@
       <c r="F27" t="s"/>
       <c r="G27" t="s"/>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="I27" t="s">
         <v>25</v>
@@ -1206,19 +1212,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="C28" t="s">
         <v>26</v>
       </c>
-      <c r="D28" t="s"/>
-      <c r="E28" t="s"/>
-      <c r="F28" t="n">
-        <v>52</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
         <v>26</v>
       </c>
+      <c r="F28" t="s"/>
+      <c r="G28" t="s"/>
       <c r="H28" t="s"/>
       <c r="I28" t="s"/>
     </row>
@@ -1227,19 +1233,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>471</v>
+        <v>62</v>
       </c>
       <c r="C29" t="s">
         <v>27</v>
       </c>
       <c r="D29" t="n">
-        <v>393</v>
+        <v>43</v>
       </c>
       <c r="E29" t="s">
         <v>27</v>
       </c>
       <c r="F29" t="n">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="G29" t="s">
         <v>27</v>
@@ -1252,19 +1258,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>245</v>
+        <v>86</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
       </c>
       <c r="D30" t="n">
-        <v>216</v>
+        <v>1</v>
       </c>
       <c r="E30" t="s">
         <v>28</v>
       </c>
       <c r="F30" t="n">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="G30" t="s">
         <v>28</v>
@@ -1277,19 +1283,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>688</v>
+        <v>695</v>
       </c>
       <c r="C31" t="s">
         <v>29</v>
       </c>
       <c r="D31" t="n">
-        <v>612</v>
+        <v>593</v>
       </c>
       <c r="E31" t="s">
         <v>29</v>
       </c>
       <c r="F31" t="n">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="G31" t="s">
         <v>29</v>
@@ -1302,19 +1308,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="C32" t="s">
         <v>30</v>
       </c>
       <c r="D32" t="n">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="E32" t="s">
         <v>30</v>
       </c>
       <c r="F32" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="G32" t="s">
         <v>30</v>
@@ -1327,19 +1333,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3679</v>
+        <v>340</v>
       </c>
       <c r="C33" t="s">
         <v>31</v>
       </c>
       <c r="D33" t="n">
-        <v>2464</v>
+        <v>324</v>
       </c>
       <c r="E33" t="s">
         <v>31</v>
       </c>
       <c r="F33" t="n">
-        <v>1215</v>
+        <v>16</v>
       </c>
       <c r="G33" t="s">
         <v>31</v>
@@ -1352,40 +1358,48 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>37</v>
+        <v>217</v>
       </c>
       <c r="C34" t="s">
         <v>32</v>
       </c>
-      <c r="D34" t="s"/>
-      <c r="E34" t="s"/>
-      <c r="F34" t="s"/>
-      <c r="G34" t="s"/>
-      <c r="H34" t="n">
-        <v>37</v>
-      </c>
-      <c r="I34" t="s">
+      <c r="D34" t="n">
+        <v>184</v>
+      </c>
+      <c r="E34" t="s">
         <v>32</v>
       </c>
+      <c r="F34" t="n">
+        <v>33</v>
+      </c>
+      <c r="G34" t="s">
+        <v>32</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s"/>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C35" t="s">
         <v>33</v>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E35" t="s">
         <v>33</v>
       </c>
-      <c r="F35" t="s"/>
-      <c r="G35" t="s"/>
+      <c r="F35" t="n">
+        <v>3</v>
+      </c>
+      <c r="G35" t="s">
+        <v>33</v>
+      </c>
       <c r="H35" t="s"/>
       <c r="I35" t="s"/>
     </row>
@@ -1394,44 +1408,40 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>234</v>
+        <v>96</v>
       </c>
       <c r="C36" t="s">
         <v>34</v>
       </c>
-      <c r="D36" t="n">
-        <v>221</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="D36" t="s"/>
+      <c r="E36" t="s"/>
+      <c r="F36" t="s"/>
+      <c r="G36" t="s"/>
+      <c r="H36" t="n">
+        <v>96</v>
+      </c>
+      <c r="I36" t="s">
         <v>34</v>
       </c>
-      <c r="F36" t="n">
-        <v>13</v>
-      </c>
-      <c r="G36" t="s">
-        <v>34</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s"/>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>213</v>
+        <v>184</v>
       </c>
       <c r="C37" t="s">
         <v>35</v>
       </c>
       <c r="D37" t="n">
-        <v>3</v>
+        <v>140</v>
       </c>
       <c r="E37" t="s">
         <v>35</v>
       </c>
       <c r="F37" t="n">
-        <v>210</v>
+        <v>44</v>
       </c>
       <c r="G37" t="s">
         <v>35</v>
@@ -1444,44 +1454,40 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1693</v>
+        <v>79</v>
       </c>
       <c r="C38" t="s">
         <v>36</v>
       </c>
-      <c r="D38" t="n">
-        <v>1460</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="D38" t="s"/>
+      <c r="E38" t="s"/>
+      <c r="F38" t="s"/>
+      <c r="G38" t="s"/>
+      <c r="H38" t="n">
+        <v>79</v>
+      </c>
+      <c r="I38" t="s">
         <v>36</v>
       </c>
-      <c r="F38" t="n">
-        <v>233</v>
-      </c>
-      <c r="G38" t="s">
-        <v>36</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>362</v>
+        <v>724</v>
       </c>
       <c r="C39" t="s">
         <v>37</v>
       </c>
       <c r="D39" t="n">
-        <v>331</v>
+        <v>643</v>
       </c>
       <c r="E39" t="s">
         <v>37</v>
       </c>
       <c r="F39" t="n">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="G39" t="s">
         <v>37</v>
@@ -1494,69 +1500,61 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>596</v>
+        <v>1266</v>
       </c>
       <c r="C40" t="s">
         <v>38</v>
       </c>
-      <c r="D40" t="n">
-        <v>515</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="D40" t="s"/>
+      <c r="E40" t="s"/>
+      <c r="F40" t="s"/>
+      <c r="G40" t="s"/>
+      <c r="H40" t="n">
+        <v>1266</v>
+      </c>
+      <c r="I40" t="s">
         <v>38</v>
       </c>
-      <c r="F40" t="n">
-        <v>81</v>
-      </c>
-      <c r="G40" t="s">
-        <v>38</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>540</v>
+        <v>2</v>
       </c>
       <c r="C41" t="s">
         <v>39</v>
       </c>
-      <c r="D41" t="n">
-        <v>530</v>
-      </c>
-      <c r="E41" t="s">
+      <c r="D41" t="s"/>
+      <c r="E41" t="s"/>
+      <c r="F41" t="s"/>
+      <c r="G41" t="s"/>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+      <c r="I41" t="s">
         <v>39</v>
       </c>
-      <c r="F41" t="n">
-        <v>10</v>
-      </c>
-      <c r="G41" t="s">
-        <v>39</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s"/>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>30</v>
+        <v>290</v>
       </c>
       <c r="C42" t="s">
         <v>40</v>
       </c>
       <c r="D42" t="n">
-        <v>22</v>
+        <v>272</v>
       </c>
       <c r="E42" t="s">
         <v>40</v>
       </c>
       <c r="F42" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G42" t="s">
         <v>40</v>
@@ -1569,40 +1567,40 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>84</v>
+        <v>4</v>
       </c>
       <c r="C43" t="s">
         <v>41</v>
       </c>
       <c r="D43" t="s"/>
       <c r="E43" t="s"/>
-      <c r="F43" t="s"/>
-      <c r="G43" t="s"/>
-      <c r="H43" t="n">
-        <v>84</v>
-      </c>
-      <c r="I43" t="s">
+      <c r="F43" t="n">
+        <v>4</v>
+      </c>
+      <c r="G43" t="s">
         <v>41</v>
       </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>558</v>
+        <v>128</v>
       </c>
       <c r="C44" t="s">
         <v>42</v>
       </c>
       <c r="D44" t="n">
-        <v>506</v>
+        <v>95</v>
       </c>
       <c r="E44" t="s">
         <v>42</v>
       </c>
       <c r="F44" t="n">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="G44" t="s">
         <v>42</v>
@@ -1615,44 +1613,44 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>21</v>
+        <v>122</v>
       </c>
       <c r="C45" t="s">
         <v>43</v>
       </c>
-      <c r="D45" t="s"/>
-      <c r="E45" t="s"/>
-      <c r="F45" t="s"/>
-      <c r="G45" t="s"/>
-      <c r="H45" t="n">
-        <v>21</v>
-      </c>
-      <c r="I45" t="s">
+      <c r="D45" t="n">
+        <v>103</v>
+      </c>
+      <c r="E45" t="s">
         <v>43</v>
       </c>
+      <c r="F45" t="n">
+        <v>19</v>
+      </c>
+      <c r="G45" t="s">
+        <v>43</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s"/>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>863</v>
+        <v>1</v>
       </c>
       <c r="C46" t="s">
         <v>44</v>
       </c>
       <c r="D46" t="n">
-        <v>775</v>
+        <v>1</v>
       </c>
       <c r="E46" t="s">
         <v>44</v>
       </c>
-      <c r="F46" t="n">
-        <v>88</v>
-      </c>
-      <c r="G46" t="s">
-        <v>44</v>
-      </c>
+      <c r="F46" t="s"/>
+      <c r="G46" t="s"/>
       <c r="H46" t="s"/>
       <c r="I46" t="s"/>
     </row>
@@ -1661,7 +1659,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1228</v>
+        <v>44</v>
       </c>
       <c r="C47" t="s">
         <v>45</v>
@@ -1671,7 +1669,7 @@
       <c r="F47" t="s"/>
       <c r="G47" t="s"/>
       <c r="H47" t="n">
-        <v>1228</v>
+        <v>44</v>
       </c>
       <c r="I47" t="s">
         <v>45</v>
@@ -1682,44 +1680,44 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>701</v>
       </c>
       <c r="C48" t="s">
         <v>46</v>
       </c>
-      <c r="D48" t="s"/>
-      <c r="E48" t="s"/>
-      <c r="F48" t="s"/>
-      <c r="G48" t="s"/>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="s">
+      <c r="D48" t="n">
+        <v>691</v>
+      </c>
+      <c r="E48" t="s">
         <v>46</v>
       </c>
+      <c r="F48" t="n">
+        <v>10</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>356</v>
+        <v>150</v>
       </c>
       <c r="C49" t="s">
         <v>47</v>
       </c>
       <c r="D49" t="n">
-        <v>336</v>
+        <v>150</v>
       </c>
       <c r="E49" t="s">
         <v>47</v>
       </c>
-      <c r="F49" t="n">
-        <v>20</v>
-      </c>
-      <c r="G49" t="s">
-        <v>47</v>
-      </c>
+      <c r="F49" t="s"/>
+      <c r="G49" t="s"/>
       <c r="H49" t="s"/>
       <c r="I49" t="s"/>
     </row>
@@ -1728,57 +1726,49 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>260</v>
+        <v>112</v>
       </c>
       <c r="C50" t="s">
         <v>48</v>
       </c>
-      <c r="D50" t="n">
-        <v>191</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="D50" t="s"/>
+      <c r="E50" t="s"/>
+      <c r="F50" t="s"/>
+      <c r="G50" t="s"/>
+      <c r="H50" t="n">
+        <v>112</v>
+      </c>
+      <c r="I50" t="s">
         <v>48</v>
       </c>
-      <c r="F50" t="n">
-        <v>69</v>
-      </c>
-      <c r="G50" t="s">
-        <v>48</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>275</v>
+        <v>85</v>
       </c>
       <c r="C51" t="s">
         <v>49</v>
       </c>
-      <c r="D51" t="n">
-        <v>233</v>
-      </c>
-      <c r="E51" t="s">
+      <c r="D51" t="s"/>
+      <c r="E51" t="s"/>
+      <c r="F51" t="s"/>
+      <c r="G51" t="s"/>
+      <c r="H51" t="n">
+        <v>85</v>
+      </c>
+      <c r="I51" t="s">
         <v>49</v>
       </c>
-      <c r="F51" t="n">
-        <v>42</v>
-      </c>
-      <c r="G51" t="s">
-        <v>49</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C52" t="s">
         <v>50</v>
@@ -1788,7 +1778,7 @@
       <c r="F52" t="s"/>
       <c r="G52" t="s"/>
       <c r="H52" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
         <v>50</v>
@@ -1799,38 +1789,42 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>959</v>
+        <v>1112</v>
       </c>
       <c r="C53" t="s">
         <v>51</v>
       </c>
       <c r="D53" t="n">
-        <v>946</v>
+        <v>681</v>
       </c>
       <c r="E53" t="s">
         <v>51</v>
       </c>
       <c r="F53" t="n">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="G53" t="s">
         <v>51</v>
       </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s"/>
+      <c r="H53" t="n">
+        <v>373</v>
+      </c>
+      <c r="I53" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>170</v>
+        <v>1</v>
       </c>
       <c r="C54" t="s">
         <v>52</v>
       </c>
       <c r="D54" t="n">
-        <v>170</v>
+        <v>1</v>
       </c>
       <c r="E54" t="s">
         <v>52</v>
@@ -1845,42 +1839,50 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>114</v>
+        <v>3576</v>
       </c>
       <c r="C55" t="s">
         <v>53</v>
       </c>
-      <c r="D55" t="s"/>
-      <c r="E55" t="s"/>
-      <c r="F55" t="s"/>
-      <c r="G55" t="s"/>
-      <c r="H55" t="n">
-        <v>114</v>
-      </c>
-      <c r="I55" t="s">
+      <c r="D55" t="n">
+        <v>3433</v>
+      </c>
+      <c r="E55" t="s">
         <v>53</v>
       </c>
+      <c r="F55" t="n">
+        <v>143</v>
+      </c>
+      <c r="G55" t="s">
+        <v>53</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="C56" t="s">
         <v>54</v>
       </c>
-      <c r="D56" t="s"/>
-      <c r="E56" t="s"/>
-      <c r="F56" t="s"/>
-      <c r="G56" t="s"/>
-      <c r="H56" t="n">
-        <v>85</v>
-      </c>
-      <c r="I56" t="s">
+      <c r="D56" t="n">
+        <v>42</v>
+      </c>
+      <c r="E56" t="s">
         <v>54</v>
       </c>
+      <c r="F56" t="n">
+        <v>4</v>
+      </c>
+      <c r="G56" t="s">
+        <v>54</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
@@ -1892,35 +1894,35 @@
       <c r="C57" t="s">
         <v>55</v>
       </c>
-      <c r="D57" t="s"/>
-      <c r="E57" t="s"/>
+      <c r="D57" t="n">
+        <v>1</v>
+      </c>
+      <c r="E57" t="s">
+        <v>55</v>
+      </c>
       <c r="F57" t="s"/>
       <c r="G57" t="s"/>
-      <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="s">
-        <v>55</v>
-      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>789</v>
+        <v>140</v>
       </c>
       <c r="C58" t="s">
         <v>56</v>
       </c>
       <c r="D58" t="n">
-        <v>693</v>
+        <v>116</v>
       </c>
       <c r="E58" t="s">
         <v>56</v>
       </c>
       <c r="F58" t="n">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="G58" t="s">
         <v>56</v>
@@ -1933,19 +1935,19 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>5056</v>
+        <v>1982</v>
       </c>
       <c r="C59" t="s">
         <v>57</v>
       </c>
       <c r="D59" t="n">
-        <v>4808</v>
+        <v>1929</v>
       </c>
       <c r="E59" t="s">
         <v>57</v>
       </c>
       <c r="F59" t="n">
-        <v>248</v>
+        <v>53</v>
       </c>
       <c r="G59" t="s">
         <v>57</v>
@@ -1958,13 +1960,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C60" t="s">
         <v>58</v>
       </c>
       <c r="D60" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E60" t="s">
         <v>58</v>
@@ -1979,19 +1981,23 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>2178</v>
       </c>
       <c r="C61" t="s">
         <v>59</v>
       </c>
       <c r="D61" t="n">
-        <v>1</v>
+        <v>2144</v>
       </c>
       <c r="E61" t="s">
         <v>59</v>
       </c>
-      <c r="F61" t="s"/>
-      <c r="G61" t="s"/>
+      <c r="F61" t="n">
+        <v>34</v>
+      </c>
+      <c r="G61" t="s">
+        <v>59</v>
+      </c>
       <c r="H61" t="s"/>
       <c r="I61" t="s"/>
     </row>
@@ -2000,40 +2006,40 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="C62" t="s">
         <v>60</v>
       </c>
-      <c r="D62" t="n">
-        <v>6</v>
-      </c>
-      <c r="E62" t="s">
-        <v>60</v>
-      </c>
+      <c r="D62" t="s"/>
+      <c r="E62" t="s"/>
       <c r="F62" t="s"/>
       <c r="G62" t="s"/>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s"/>
+      <c r="H62" t="n">
+        <v>29</v>
+      </c>
+      <c r="I62" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>134</v>
+        <v>927</v>
       </c>
       <c r="C63" t="s">
         <v>61</v>
       </c>
       <c r="D63" t="n">
-        <v>104</v>
+        <v>914</v>
       </c>
       <c r="E63" t="s">
         <v>61</v>
       </c>
       <c r="F63" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G63" t="s">
         <v>61</v>
@@ -2046,19 +2052,15 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1197</v>
+        <v>3</v>
       </c>
       <c r="C64" t="s">
         <v>62</v>
       </c>
-      <c r="D64" t="n">
-        <v>1132</v>
-      </c>
-      <c r="E64" t="s">
-        <v>62</v>
-      </c>
+      <c r="D64" t="s"/>
+      <c r="E64" t="s"/>
       <c r="F64" t="n">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="G64" t="s">
         <v>62</v>
@@ -2071,19 +2073,19 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>2</v>
+        <v>242</v>
       </c>
       <c r="C65" t="s">
         <v>63</v>
       </c>
       <c r="D65" t="n">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="E65" t="s">
         <v>63</v>
       </c>
       <c r="F65" t="n">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="G65" t="s">
         <v>63</v>
@@ -2096,19 +2098,15 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>247</v>
+        <v>1</v>
       </c>
       <c r="C66" t="s">
         <v>64</v>
       </c>
-      <c r="D66" t="n">
-        <v>244</v>
-      </c>
-      <c r="E66" t="s">
-        <v>64</v>
-      </c>
+      <c r="D66" t="s"/>
+      <c r="E66" t="s"/>
       <c r="F66" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G66" t="s">
         <v>64</v>
@@ -2121,40 +2119,40 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C67" t="s">
         <v>65</v>
       </c>
-      <c r="D67" t="s"/>
-      <c r="E67" t="s"/>
+      <c r="D67" t="n">
+        <v>4</v>
+      </c>
+      <c r="E67" t="s">
+        <v>65</v>
+      </c>
       <c r="F67" t="s"/>
       <c r="G67" t="s"/>
-      <c r="H67" t="n">
-        <v>12</v>
-      </c>
-      <c r="I67" t="s">
-        <v>65</v>
-      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s"/>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>128</v>
+        <v>2</v>
       </c>
       <c r="C68" t="s">
         <v>66</v>
       </c>
       <c r="D68" t="n">
-        <v>124</v>
+        <v>1</v>
       </c>
       <c r="E68" t="s">
         <v>66</v>
       </c>
       <c r="F68" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G68" t="s">
         <v>66</v>
@@ -2167,159 +2165,25 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>3</v>
+        <v>143</v>
       </c>
       <c r="C69" t="s">
         <v>67</v>
       </c>
-      <c r="D69" t="s"/>
-      <c r="E69" t="s"/>
+      <c r="D69" t="n">
+        <v>70</v>
+      </c>
+      <c r="E69" t="s">
+        <v>67</v>
+      </c>
       <c r="F69" t="n">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="G69" t="s">
         <v>67</v>
       </c>
       <c r="H69" t="s"/>
       <c r="I69" t="s"/>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>8</v>
-      </c>
-      <c r="C70" t="s">
-        <v>68</v>
-      </c>
-      <c r="D70" t="n">
-        <v>3</v>
-      </c>
-      <c r="E70" t="s">
-        <v>68</v>
-      </c>
-      <c r="F70" t="n">
-        <v>5</v>
-      </c>
-      <c r="G70" t="s">
-        <v>68</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s"/>
-    </row>
-    <row r="71" spans="1:9">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>374</v>
-      </c>
-      <c r="C71" t="s">
-        <v>69</v>
-      </c>
-      <c r="D71" t="n">
-        <v>338</v>
-      </c>
-      <c r="E71" t="s">
-        <v>69</v>
-      </c>
-      <c r="F71" t="n">
-        <v>36</v>
-      </c>
-      <c r="G71" t="s">
-        <v>69</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s"/>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>4</v>
-      </c>
-      <c r="C72" t="s">
-        <v>70</v>
-      </c>
-      <c r="D72" t="n">
-        <v>4</v>
-      </c>
-      <c r="E72" t="s">
-        <v>70</v>
-      </c>
-      <c r="F72" t="s"/>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s"/>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>4</v>
-      </c>
-      <c r="C73" t="s">
-        <v>71</v>
-      </c>
-      <c r="D73" t="n">
-        <v>4</v>
-      </c>
-      <c r="E73" t="s">
-        <v>71</v>
-      </c>
-      <c r="F73" t="s"/>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s"/>
-    </row>
-    <row r="74" spans="1:9">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>1</v>
-      </c>
-      <c r="C74" t="s">
-        <v>72</v>
-      </c>
-      <c r="D74" t="n">
-        <v>1</v>
-      </c>
-      <c r="E74" t="s">
-        <v>72</v>
-      </c>
-      <c r="F74" t="s"/>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s"/>
-    </row>
-    <row r="75" spans="1:9">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>207</v>
-      </c>
-      <c r="C75" t="s">
-        <v>73</v>
-      </c>
-      <c r="D75" t="n">
-        <v>159</v>
-      </c>
-      <c r="E75" t="s">
-        <v>73</v>
-      </c>
-      <c r="F75" t="n">
-        <v>48</v>
-      </c>
-      <c r="G75" t="s">
-        <v>73</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
